--- a/analysis/paper_data/firstyear/מן_top_assocs.xlsx
+++ b/analysis/paper_data/firstyear/מן_top_assocs.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Fisher's Score</t>
+  </si>
+  <si>
+    <t>Raw Counts</t>
   </si>
   <si>
     <t>מחרת</t>
@@ -695,871 +698,1195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>22.88</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>6.18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>5.83</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>5.83</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>5.61</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>3.49</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>2.32</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1.16</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1.16</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1.16</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>-0.21</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>-0.21</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>-0.21</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>-0.39</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>-0.41</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>-0.57</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>-0.68</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>-0.92</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>-1.33</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>-1.52</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>-1.81</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>-2.91</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
